--- a/data/schedule/schedule.xlsx
+++ b/data/schedule/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthiasschnetzer/Daten/Lehre/wipol_viz_MA/data/schedule/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE06F8D2-AA01-AA4C-9708-B652D7AEF4DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{097FC92C-DA3C-0444-A7CC-31AE42D95FF5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{F9BD3B2F-4F88-794D-B86A-6B2451FB96A3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="45">
   <si>
     <t>Date</t>
   </si>
@@ -106,24 +106,6 @@
   </si>
   <si>
     <t>05_inflation.RData</t>
-  </si>
-  <si>
-    <t>06_labour</t>
-  </si>
-  <si>
-    <t>06_labour.RData</t>
-  </si>
-  <si>
-    <t>06_labour.R</t>
-  </si>
-  <si>
-    <t>07_income</t>
-  </si>
-  <si>
-    <t>07_income.RData</t>
-  </si>
-  <si>
-    <t>07_income.Rmd</t>
   </si>
   <si>
     <t>08_wealth</t>
@@ -551,7 +533,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -600,7 +582,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
@@ -617,7 +599,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
@@ -646,10 +628,10 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
         <v>16</v>
@@ -664,7 +646,7 @@
         <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -675,10 +657,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
         <v>19</v>
@@ -693,7 +675,7 @@
         <v>3</v>
       </c>
       <c r="I5" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -704,10 +686,10 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
         <v>39</v>
-      </c>
-      <c r="D6" t="s">
-        <v>45</v>
       </c>
       <c r="E6" t="s">
         <v>20</v>
@@ -722,7 +704,7 @@
         <v>4</v>
       </c>
       <c r="I6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -733,19 +715,10 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -756,20 +729,12 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>31</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
@@ -779,19 +744,19 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G9" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -802,19 +767,19 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G10" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">

--- a/data/schedule/schedule.xlsx
+++ b/data/schedule/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthiasschnetzer/Daten/Lehre/wipol_viz_MA/data/schedule/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{097FC92C-DA3C-0444-A7CC-31AE42D95FF5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B40DE2-2D9A-B24D-B3E2-26879C603A12}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{F9BD3B2F-4F88-794D-B86A-6B2451FB96A3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
   <si>
     <t>Date</t>
   </si>
@@ -63,33 +63,18 @@
     <t>rstudio</t>
   </si>
   <si>
-    <t>01_introduction</t>
-  </si>
-  <si>
-    <t>02_data</t>
-  </si>
-  <si>
     <t>Data</t>
   </si>
   <si>
     <t>Visualization</t>
   </si>
   <si>
-    <t>03_visualization</t>
-  </si>
-  <si>
     <t>03_visualization.R</t>
   </si>
   <si>
     <t>02_data.R</t>
   </si>
   <si>
-    <t>04_growth</t>
-  </si>
-  <si>
-    <t>05_inflation</t>
-  </si>
-  <si>
     <t>04_growth.R</t>
   </si>
   <si>
@@ -108,15 +93,9 @@
     <t>05_inflation.RData</t>
   </si>
   <si>
-    <t>08_wealth</t>
-  </si>
-  <si>
     <t>08_wealth.R</t>
   </si>
   <si>
-    <t>09_mobility</t>
-  </si>
-  <si>
     <t>09_mobility.R</t>
   </si>
   <si>
@@ -141,9 +120,6 @@
     <t>Themes</t>
   </si>
   <si>
-    <t>Scales</t>
-  </si>
-  <si>
     <t>Labels</t>
   </si>
   <si>
@@ -160,6 +136,15 @@
   </si>
   <si>
     <t>mobility</t>
+  </si>
+  <si>
+    <t>06_labour.R</t>
+  </si>
+  <si>
+    <t>06_labour.RData</t>
+  </si>
+  <si>
+    <t>Maps</t>
   </si>
 </sst>
 </file>
@@ -533,7 +518,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -565,7 +550,7 @@
         <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H1" t="s">
         <v>4</v>
@@ -582,13 +567,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
         <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -599,19 +587,16 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -628,25 +613,22 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
         <v>16</v>
       </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H4">
         <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -657,25 +639,22 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
         <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>25</v>
       </c>
       <c r="H5">
         <v>3</v>
       </c>
       <c r="I5" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -686,25 +665,22 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="H6">
         <v>4</v>
       </c>
       <c r="I6" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -715,10 +691,10 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -729,10 +705,10 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>33</v>
-      </c>
-      <c r="D8" t="s">
-        <v>41</v>
       </c>
       <c r="G8" s="3"/>
     </row>
@@ -744,19 +720,16 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -767,19 +740,16 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">

--- a/data/schedule/schedule.xlsx
+++ b/data/schedule/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthiasschnetzer/Daten/Lehre/wipol_viz_MA/data/schedule/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B40DE2-2D9A-B24D-B3E2-26879C603A12}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58406ABA-6F91-6340-BD70-80593BBBDE21}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{F9BD3B2F-4F88-794D-B86A-6B2451FB96A3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="43">
   <si>
     <t>Date</t>
   </si>
@@ -135,9 +135,6 @@
     <t>inflation</t>
   </si>
   <si>
-    <t>mobility</t>
-  </si>
-  <si>
     <t>06_labour.R</t>
   </si>
   <si>
@@ -145,6 +142,18 @@
   </si>
   <si>
     <t>Maps</t>
+  </si>
+  <si>
+    <t>empstatus</t>
+  </si>
+  <si>
+    <t>Online</t>
+  </si>
+  <si>
+    <t>01_introduction</t>
+  </si>
+  <si>
+    <t>02_visualization</t>
   </si>
 </sst>
 </file>
@@ -518,7 +527,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -572,6 +581,9 @@
       <c r="D2" t="s">
         <v>12</v>
       </c>
+      <c r="E2" t="s">
+        <v>41</v>
+      </c>
       <c r="F2" t="s">
         <v>15</v>
       </c>
@@ -592,6 +604,9 @@
       <c r="D3" t="s">
         <v>13</v>
       </c>
+      <c r="E3" t="s">
+        <v>42</v>
+      </c>
       <c r="F3" t="s">
         <v>14</v>
       </c>
@@ -639,7 +654,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
         <v>29</v>
@@ -671,16 +686,16 @@
         <v>31</v>
       </c>
       <c r="F6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" t="s">
         <v>37</v>
-      </c>
-      <c r="G6" t="s">
-        <v>38</v>
       </c>
       <c r="H6">
         <v>4</v>
       </c>
       <c r="I6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -743,7 +758,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F10" t="s">
         <v>23</v>

--- a/data/schedule/schedule.xlsx
+++ b/data/schedule/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthiasschnetzer/Daten/Lehre/wipol_viz_MA/data/schedule/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58406ABA-6F91-6340-BD70-80593BBBDE21}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D941659-2734-0941-8535-C53F53CC4A72}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{F9BD3B2F-4F88-794D-B86A-6B2451FB96A3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="45">
   <si>
     <t>Date</t>
   </si>
@@ -69,42 +69,6 @@
     <t>Visualization</t>
   </si>
   <si>
-    <t>03_visualization.R</t>
-  </si>
-  <si>
-    <t>02_data.R</t>
-  </si>
-  <si>
-    <t>04_growth.R</t>
-  </si>
-  <si>
-    <t>05_inflation.R</t>
-  </si>
-  <si>
-    <t>02_data.RData</t>
-  </si>
-  <si>
-    <t>03_visualization.RData</t>
-  </si>
-  <si>
-    <t>04_growth.RData</t>
-  </si>
-  <si>
-    <t>05_inflation.RData</t>
-  </si>
-  <si>
-    <t>08_wealth.R</t>
-  </si>
-  <si>
-    <t>09_mobility.R</t>
-  </si>
-  <si>
-    <t>08_wealth.RData</t>
-  </si>
-  <si>
-    <t>09_mobility.RData</t>
-  </si>
-  <si>
     <t>TC.3.10</t>
   </si>
   <si>
@@ -135,12 +99,6 @@
     <t>inflation</t>
   </si>
   <si>
-    <t>06_labour.R</t>
-  </si>
-  <si>
-    <t>06_labour.RData</t>
-  </si>
-  <si>
     <t>Maps</t>
   </si>
   <si>
@@ -154,6 +112,54 @@
   </si>
   <si>
     <t>02_visualization</t>
+  </si>
+  <si>
+    <t>01_data.R</t>
+  </si>
+  <si>
+    <t>02_visualization.R</t>
+  </si>
+  <si>
+    <t>03_geometries.R</t>
+  </si>
+  <si>
+    <t>04_colors.R</t>
+  </si>
+  <si>
+    <t>05_labels.R</t>
+  </si>
+  <si>
+    <t>08_themes.R</t>
+  </si>
+  <si>
+    <t>09_maps.R</t>
+  </si>
+  <si>
+    <t>01_data.Rdata</t>
+  </si>
+  <si>
+    <t>02_visualization.Rdata</t>
+  </si>
+  <si>
+    <t>03_geometries.Rdata</t>
+  </si>
+  <si>
+    <t>04_colors.Rdata</t>
+  </si>
+  <si>
+    <t>05_labels.Rdata</t>
+  </si>
+  <si>
+    <t>08_themes.Rdata</t>
+  </si>
+  <si>
+    <t>09_maps.Rdata</t>
+  </si>
+  <si>
+    <t>03_geometries</t>
+  </si>
+  <si>
+    <t>04_colors</t>
   </si>
 </sst>
 </file>
@@ -163,7 +169,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -173,13 +179,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -205,11 +204,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -527,7 +525,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -576,19 +574,19 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -599,19 +597,19 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -628,22 +626,25 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="H4">
         <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -654,22 +655,25 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="H5">
         <v>3</v>
       </c>
       <c r="I5" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -680,22 +684,22 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H6">
         <v>4</v>
       </c>
       <c r="I6" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -706,10 +710,10 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -720,12 +724,11 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="3"/>
+        <v>21</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
@@ -735,16 +738,16 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -755,16 +758,16 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="F10" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="G10" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">

--- a/data/schedule/schedule.xlsx
+++ b/data/schedule/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthiasschnetzer/Daten/Lehre/wipol_viz_MA/data/schedule/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D941659-2734-0941-8535-C53F53CC4A72}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D06D7FF6-0F1F-2C4A-BD3C-3339FB52F45E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{F9BD3B2F-4F88-794D-B86A-6B2451FB96A3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
   <si>
     <t>Date</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>04_colors</t>
+  </si>
+  <si>
+    <t>05_labels</t>
   </si>
 </sst>
 </file>
@@ -525,7 +528,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -689,6 +692,9 @@
       <c r="D6" t="s">
         <v>19</v>
       </c>
+      <c r="E6" t="s">
+        <v>45</v>
+      </c>
       <c r="F6" t="s">
         <v>33</v>
       </c>

--- a/data/schedule/schedule.xlsx
+++ b/data/schedule/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthiasschnetzer/Daten/Lehre/wipol_viz_MA/data/schedule/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D06D7FF6-0F1F-2C4A-BD3C-3339FB52F45E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53ABE13C-2273-E648-9B5F-E47B5667474F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{F9BD3B2F-4F88-794D-B86A-6B2451FB96A3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="50">
   <si>
     <t>Date</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Code</t>
   </si>
   <si>
-    <t>Student presentations</t>
-  </si>
-  <si>
     <t>Chart</t>
   </si>
   <si>
@@ -129,12 +126,6 @@
     <t>05_labels.R</t>
   </si>
   <si>
-    <t>08_themes.R</t>
-  </si>
-  <si>
-    <t>09_maps.R</t>
-  </si>
-  <si>
     <t>01_data.Rdata</t>
   </si>
   <si>
@@ -150,12 +141,6 @@
     <t>05_labels.Rdata</t>
   </si>
   <si>
-    <t>08_themes.Rdata</t>
-  </si>
-  <si>
-    <t>09_maps.Rdata</t>
-  </si>
-  <si>
     <t>03_geometries</t>
   </si>
   <si>
@@ -163,6 +148,33 @@
   </si>
   <si>
     <t>05_labels</t>
+  </si>
+  <si>
+    <t>06_themes.R</t>
+  </si>
+  <si>
+    <t>07_maps.R</t>
+  </si>
+  <si>
+    <t>06_themes.Rdata</t>
+  </si>
+  <si>
+    <t>07_maps.Rdata</t>
+  </si>
+  <si>
+    <t>06_themes</t>
+  </si>
+  <si>
+    <t>Presentations (1-4, 13, 15-20)</t>
+  </si>
+  <si>
+    <t>Presentations (5-12, 14)</t>
+  </si>
+  <si>
+    <t>patents.pdf</t>
+  </si>
+  <si>
+    <t>07_maps</t>
   </si>
 </sst>
 </file>
@@ -528,7 +540,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -560,13 +572,13 @@
         <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" t="s">
         <v>4</v>
       </c>
       <c r="I1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -577,19 +589,19 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -600,25 +612,25 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -629,25 +641,25 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H4">
         <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -658,25 +670,25 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H5">
         <v>3</v>
       </c>
       <c r="I5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -687,25 +699,25 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H6">
         <v>4</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -716,10 +728,13 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -730,10 +745,10 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -744,16 +759,19 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -764,16 +782,19 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
+        <v>49</v>
       </c>
       <c r="F10" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -787,7 +808,7 @@
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -801,7 +822,7 @@
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
